--- a/output/JRC/annual_COM_gas_space_heating_std_bcm.xlsx
+++ b/output/JRC/annual_COM_gas_space_heating_std_bcm.xlsx
@@ -593,34 +593,34 @@
         <v>0.02051509907156099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02248790036809893</v>
+        <v>0.02248790036809894</v>
       </c>
       <c r="G3" t="n">
         <v>0.02453125903313598</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02663889706819374</v>
+        <v>0.02663889706819375</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02880357289730549</v>
+        <v>0.0288035728973055</v>
       </c>
       <c r="J3" t="n">
         <v>0.03101692402861244</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03327481298051714</v>
+        <v>0.03327481298051715</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03557099027305466</v>
+        <v>0.03557099027305467</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0378992261173735</v>
+        <v>0.03789922611737351</v>
       </c>
       <c r="N3" t="n">
         <v>0.04026551155655119</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04266433604447273</v>
+        <v>0.04266433604447274</v>
       </c>
       <c r="P3" t="n">
         <v>0.04509479096987978</v>
@@ -629,19 +629,19 @@
         <v>0.04755249656936963</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05002549652279089</v>
+        <v>0.0500254965227909</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05251301915749709</v>
+        <v>0.05251301915749711</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05501196262700511</v>
+        <v>0.05501196262700513</v>
       </c>
       <c r="U3" t="n">
         <v>0.05751831643449865</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06003277646309224</v>
+        <v>0.06003277646309226</v>
       </c>
     </row>
     <row r="4">
@@ -733,7 +733,7 @@
         <v>0.02188009486158441</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02349487310793669</v>
+        <v>0.02349487310793668</v>
       </c>
       <c r="G5" t="n">
         <v>0.02516186000548307</v>
@@ -742,7 +742,7 @@
         <v>0.02688762913010187</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02866561371025211</v>
+        <v>0.0286656137102521</v>
       </c>
       <c r="J5" t="n">
         <v>0.03049185723128029</v>
@@ -763,16 +763,16 @@
         <v>0.04024073558651578</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04229249139838912</v>
+        <v>0.04229249139838911</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04437299675313379</v>
+        <v>0.04437299675313378</v>
       </c>
       <c r="R5" t="n">
         <v>0.04647972027448809</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0486161957162947</v>
+        <v>0.04861619571629469</v>
       </c>
       <c r="T5" t="n">
         <v>0.05077799954167953</v>
@@ -861,52 +861,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003790087766085731</v>
+        <v>0.003790087766085733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004146239130605574</v>
+        <v>0.004146239130605575</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004511764567255629</v>
+        <v>0.004511764567255631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004888751405616815</v>
+        <v>0.004888751405616816</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005277323329248971</v>
+        <v>0.005277323329248974</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005676111301400727</v>
+        <v>0.005676111301400731</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006083537673833835</v>
+        <v>0.006083537673833838</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006499475090064643</v>
+        <v>0.006499475090064647</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006922009512472156</v>
+        <v>0.006922009512472159</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007350674336666945</v>
+        <v>0.007350674336666948</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00778492703031849</v>
+        <v>0.007784927030318496</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00822314251774952</v>
+        <v>0.008223142517749523</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00866386433554202</v>
+        <v>0.008663864335542023</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009106680153730382</v>
+        <v>0.009106680153730387</v>
       </c>
       <c r="P7" t="n">
-        <v>0.009551659959200516</v>
+        <v>0.009551659959200522</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.009998297363182754</v>
+        <v>0.00999829736318276</v>
       </c>
       <c r="R7" t="n">
         <v>0.01044612626567259</v>
@@ -921,7 +921,7 @@
         <v>0.01179164195689265</v>
       </c>
       <c r="V7" t="n">
-        <v>0.012240191968647</v>
+        <v>0.01224019196864701</v>
       </c>
     </row>
     <row r="8">
@@ -1351,67 +1351,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03189312116774488</v>
+        <v>0.03189312116774491</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03430290563700853</v>
+        <v>0.03430290563700855</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03678535431098153</v>
+        <v>0.03678535431098155</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03932879865331779</v>
+        <v>0.03932879865331782</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04193089555723572</v>
+        <v>0.04193089555723576</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04459014024034461</v>
+        <v>0.04459014024034464</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04729840586596775</v>
+        <v>0.04729840586596778</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05005456261862754</v>
+        <v>0.05005456261862758</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05285437719980137</v>
+        <v>0.05285437719980141</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05570014248054914</v>
+        <v>0.05570014248054918</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05858066511591685</v>
+        <v>0.05858066511591687</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0614947810179979</v>
+        <v>0.06149478101799795</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06443730205027386</v>
+        <v>0.06443730205027391</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06741563386561604</v>
+        <v>0.06741563386561608</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07042711233877562</v>
+        <v>0.07042711233877569</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07346389084637076</v>
+        <v>0.07346389084637081</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0765230027118812</v>
+        <v>0.07652300271188126</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07960071590662166</v>
+        <v>0.07960071590662171</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08269966157845182</v>
+        <v>0.08269966157845188</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08581237328417766</v>
+        <v>0.08581237328417773</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0889350333369653</v>
+        <v>0.08893503333696536</v>
       </c>
     </row>
     <row r="15">
@@ -2194,7 +2194,7 @@
         <v>0.003136596075072649</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00346702624759749</v>
+        <v>0.003467026247597489</v>
       </c>
       <c r="D26" t="n">
         <v>0.003810745186911077</v>
@@ -2209,10 +2209,10 @@
         <v>0.004922853718603358</v>
       </c>
       <c r="H26" t="n">
-        <v>0.005320294533061119</v>
+        <v>0.005320294533061118</v>
       </c>
       <c r="I26" t="n">
-        <v>0.005728731697220163</v>
+        <v>0.005728731697220162</v>
       </c>
       <c r="J26" t="n">
         <v>0.006149255704922373</v>
@@ -2221,7 +2221,7 @@
         <v>0.006579518609478226</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007020592225230784</v>
+        <v>0.007020592225230783</v>
       </c>
       <c r="M26" t="n">
         <v>0.007471545233462493</v>
@@ -2488,7 +2488,7 @@
         <v>0.017676154878278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01956133394978795</v>
+        <v>0.01956133394978796</v>
       </c>
       <c r="D3" t="n">
         <v>0.02156756320064022</v>
@@ -2497,25 +2497,25 @@
         <v>0.02367798225104399</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02587638586559252</v>
+        <v>0.02587638586559253</v>
       </c>
       <c r="G3" t="n">
         <v>0.0281391902668441</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03046587093770212</v>
+        <v>0.03046587093770213</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03283165208220088</v>
+        <v>0.03283165208220089</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03523375551858033</v>
+        <v>0.03523375551858034</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03766753670443985</v>
+        <v>0.03766753670443986</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04012569928689653</v>
+        <v>0.04012569928689654</v>
       </c>
       <c r="M3" t="n">
         <v>0.04259879931265793</v>
@@ -2524,28 +2524,28 @@
         <v>0.04508295643181603</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04757830483166258</v>
+        <v>0.0475783048316626</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05008397866271312</v>
+        <v>0.05008397866271314</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05259844614494021</v>
+        <v>0.05259844614494023</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05511948935610965</v>
+        <v>0.05511948935610966</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05764569675462639</v>
+        <v>0.05764569675462641</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0601763840405752</v>
+        <v>0.06017638404057521</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0627096583345271</v>
+        <v>0.06270965833452712</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06524552444212327</v>
+        <v>0.06524552444212328</v>
       </c>
     </row>
     <row r="4">
@@ -2634,7 +2634,7 @@
         <v>0.02402675184251473</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02564441989439597</v>
+        <v>0.02564441989439596</v>
       </c>
       <c r="F5" t="n">
         <v>0.02731169610735605</v>
@@ -2643,7 +2643,7 @@
         <v>0.02902549742899035</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03078507344251779</v>
+        <v>0.03078507344251778</v>
       </c>
       <c r="I5" t="n">
         <v>0.03259063071898266</v>
@@ -2655,7 +2655,7 @@
         <v>0.03633078648738147</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03825843998183553</v>
+        <v>0.03825843998183552</v>
       </c>
       <c r="M5" t="n">
         <v>0.04022264411571038</v>
@@ -2673,7 +2673,7 @@
         <v>0.04838367292573321</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05048200701155967</v>
+        <v>0.05048200701155966</v>
       </c>
       <c r="S5" t="n">
         <v>0.05259825071803195</v>
@@ -2685,7 +2685,7 @@
         <v>0.05688115135588105</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05904804321596005</v>
+        <v>0.05904804321596004</v>
       </c>
     </row>
     <row r="6">
@@ -2765,49 +2765,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003981823397187349</v>
+        <v>0.003981823397187351</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00437407209485829</v>
+        <v>0.004374072094858292</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004774039588914232</v>
+        <v>0.004774039588914234</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005181982377950597</v>
+        <v>0.0051819823779506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005596620888917689</v>
+        <v>0.005596620888917691</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006017012174482093</v>
+        <v>0.006017012174482097</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006442868921710311</v>
+        <v>0.006442868921710315</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006874964562618623</v>
+        <v>0.006874964562618627</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007312468314824554</v>
+        <v>0.007312468314824557</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00775386710711399</v>
+        <v>0.007753867107113995</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008197587540877498</v>
+        <v>0.008197587540877503</v>
       </c>
       <c r="M7" t="n">
-        <v>0.008643055417538948</v>
+        <v>0.008643055417538952</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009089801561926998</v>
+        <v>0.009089801561927003</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009537470743856675</v>
+        <v>0.00953747074385668</v>
       </c>
       <c r="P7" t="n">
-        <v>0.009985712751383345</v>
+        <v>0.009985712751383347</v>
       </c>
       <c r="Q7" t="n">
         <v>0.01043401149640697</v>
@@ -2819,13 +2819,13 @@
         <v>0.0113310565870192</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01177960058113028</v>
+        <v>0.01177960058113029</v>
       </c>
       <c r="U7" t="n">
         <v>0.01222815044433016</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01267670555360706</v>
+        <v>0.01267670555360707</v>
       </c>
     </row>
     <row r="8">
@@ -3255,67 +3255,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03900320100487912</v>
+        <v>0.03900320100487915</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0415385418190356</v>
+        <v>0.04153854181903562</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04412926811520225</v>
+        <v>0.04412926811520227</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0467773121443293</v>
+        <v>0.04677731214432933</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04948458876166148</v>
+        <v>0.04948458876166151</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05224413836197174</v>
+        <v>0.05224413836197178</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05504885498951211</v>
+        <v>0.05504885498951215</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05789745893423671</v>
+        <v>0.05789745893423675</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06078344257115961</v>
+        <v>0.06078344257115963</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06370642730745732</v>
+        <v>0.06370642730745738</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06665638661099586</v>
+        <v>0.06665638661099592</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06963168435334441</v>
+        <v>0.06963168435334445</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07263178724486831</v>
+        <v>0.07263178724486835</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07565174542968463</v>
+        <v>0.07565174542968468</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07868868536404269</v>
+        <v>0.07868868536404273</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08174268568862531</v>
+        <v>0.08174268568862539</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08481314901599753</v>
+        <v>0.0848131490159976</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08789869130586998</v>
+        <v>0.08789869130587004</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09099509938042212</v>
+        <v>0.09099509938042216</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09410647794480509</v>
+        <v>0.09410647794480514</v>
       </c>
       <c r="V14" t="n">
-        <v>0.09723443347419362</v>
+        <v>0.09723443347419368</v>
       </c>
     </row>
     <row r="15">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003880629615557627</v>
+        <v>0.003880629615557626</v>
       </c>
       <c r="C26" t="n">
         <v>0.004244966996364855</v>
@@ -4116,7 +4116,7 @@
         <v>0.006255395318125036</v>
       </c>
       <c r="I26" t="n">
-        <v>0.006691378306750661</v>
+        <v>0.00669137830675066</v>
       </c>
       <c r="J26" t="n">
         <v>0.007136637127781565</v>
@@ -4128,16 +4128,16 @@
         <v>0.008050589959831931</v>
       </c>
       <c r="M26" t="n">
-        <v>0.008517458884359373</v>
+        <v>0.008517458884359371</v>
       </c>
       <c r="N26" t="n">
-        <v>0.008990592467229518</v>
+        <v>0.008990592467229514</v>
       </c>
       <c r="O26" t="n">
         <v>0.009469622177313827</v>
       </c>
       <c r="P26" t="n">
-        <v>0.009953943626348528</v>
+        <v>0.009953943626348527</v>
       </c>
       <c r="Q26" t="n">
         <v>0.01044400721108048</v>
@@ -4413,10 +4413,10 @@
         <v>0.03732099333078887</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03977638503037378</v>
+        <v>0.03977638503037379</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04225347567958821</v>
+        <v>0.04225347567958822</v>
       </c>
       <c r="L3" t="n">
         <v>0.0447475570162419</v>
@@ -4425,10 +4425,10 @@
         <v>0.04725420957212905</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04977186990960669</v>
+        <v>0.0497718699096067</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05229889455605653</v>
+        <v>0.05229889455605654</v>
       </c>
       <c r="P3" t="n">
         <v>0.05483325909969337</v>
@@ -4437,19 +4437,19 @@
         <v>0.05737473904971876</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05992109746088484</v>
+        <v>0.05992109746088485</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06246848108512872</v>
+        <v>0.06246848108512873</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06501640491161111</v>
+        <v>0.06501640491161112</v>
       </c>
       <c r="U3" t="n">
         <v>0.06756480782596305</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07011363758834176</v>
+        <v>0.07011363758834177</v>
       </c>
     </row>
     <row r="4">
@@ -4544,7 +4544,7 @@
         <v>0.03261542932703911</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03444984692483571</v>
+        <v>0.0344498469248357</v>
       </c>
       <c r="H5" t="n">
         <v>0.03632620763136474</v>
@@ -4571,7 +4571,7 @@
         <v>0.05050844493479108</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05265048229383952</v>
+        <v>0.05265048229383951</v>
       </c>
       <c r="Q5" t="n">
         <v>0.05481473148398749</v>
@@ -4580,7 +4580,7 @@
         <v>0.05699914665207455</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05920523395890043</v>
+        <v>0.05920523395890045</v>
       </c>
       <c r="T5" t="n">
         <v>0.06143031912046895</v>
@@ -4589,7 +4589,7 @@
         <v>0.06366962821501287</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06592059588078039</v>
+        <v>0.06592059588078038</v>
       </c>
     </row>
     <row r="6">
@@ -4669,49 +4669,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005144469034980932</v>
+        <v>0.005144469034980934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005554974089298967</v>
+        <v>0.00555497408929897</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005970255068999106</v>
+        <v>0.005970255068999108</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006390841214769621</v>
+        <v>0.006390841214769623</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006816432241014441</v>
+        <v>0.006816432241014444</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00724666672860754</v>
+        <v>0.007246666728607545</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00768055898050714</v>
+        <v>0.007680558980507144</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008117219412958046</v>
+        <v>0.00811721941295805</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008556710417742702</v>
+        <v>0.008556710417742705</v>
       </c>
       <c r="K7" t="n">
-        <v>0.008998748490551598</v>
+        <v>0.008998748490551602</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009442741819141169</v>
+        <v>0.009442741819141174</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00988855455020601</v>
+        <v>0.009888554550206015</v>
       </c>
       <c r="N7" t="n">
         <v>0.01033508625039957</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01078237790180943</v>
+        <v>0.01078237790180944</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01123048669424096</v>
+        <v>0.01123048669424097</v>
       </c>
       <c r="Q7" t="n">
         <v>0.01167893626678616</v>
@@ -4720,13 +4720,13 @@
         <v>0.01212748487038855</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01257603885191304</v>
+        <v>0.01257603885191306</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01302459765572906</v>
+        <v>0.01302459765572907</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01347316080019432</v>
+        <v>0.01347316080019433</v>
       </c>
       <c r="V7" t="n">
         <v>0.01392172786573693</v>
@@ -5159,64 +5159,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04684022064744594</v>
+        <v>0.04684022064744597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0495403653099472</v>
+        <v>0.04954036530994724</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05228748824903081</v>
+        <v>0.05228748824903085</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05507755076078632</v>
+        <v>0.05507755076078636</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05790232033189176</v>
+        <v>0.0579023203318918</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06076102459856613</v>
+        <v>0.06076102459856618</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06365347075264405</v>
+        <v>0.0636534707526441</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06657215104499227</v>
+        <v>0.06657215104499231</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06951466909086827</v>
+        <v>0.06951466909086831</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07248124768152649</v>
+        <v>0.07248124768152653</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07546456855876441</v>
+        <v>0.07546456855876446</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07846112807506893</v>
+        <v>0.07846112807506897</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08147245627143102</v>
+        <v>0.08147245627143107</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08449479441408964</v>
+        <v>0.08449479441408969</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08753517585832478</v>
+        <v>0.08753517585832486</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09058907007137409</v>
+        <v>0.09058907007137416</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09365564139387264</v>
+        <v>0.09365564139387272</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09673227016634718</v>
+        <v>0.09673227016634726</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09982247289342618</v>
+        <v>0.09982247289342625</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1029255723515126</v>
+        <v>0.1029255723515127</v>
       </c>
       <c r="V14" t="n">
         <v>0.1060366614676563</v>
@@ -6005,7 +6005,7 @@
         <v>0.005126219266726173</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00551796416745955</v>
+        <v>0.005517964167459549</v>
       </c>
       <c r="E26" t="n">
         <v>0.005919803452114668</v>
@@ -6014,10 +6014,10 @@
         <v>0.006331541921648517</v>
       </c>
       <c r="G26" t="n">
-        <v>0.006751748540266372</v>
+        <v>0.00675174854026637</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007180676509271466</v>
+        <v>0.007180676509271465</v>
       </c>
       <c r="I26" t="n">
         <v>0.007617422207849747</v>
@@ -6026,7 +6026,7 @@
         <v>0.008061946944772412</v>
       </c>
       <c r="K26" t="n">
-        <v>0.008513625070766502</v>
+        <v>0.008513625070766501</v>
       </c>
       <c r="L26" t="n">
         <v>0.008972891442049968</v>
@@ -6047,7 +6047,7 @@
         <v>0.01136280065168195</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01185479288028622</v>
+        <v>0.01185479288028621</v>
       </c>
       <c r="S26" t="n">
         <v>0.01235111999535639</v>
@@ -6059,7 +6059,7 @@
         <v>0.01335621794936415</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01386290970068257</v>
+        <v>0.01386290970068256</v>
       </c>
     </row>
     <row r="27">
@@ -6293,58 +6293,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0299340980240695</v>
+        <v>0.02993409802406951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03196720956363753</v>
+        <v>0.03196720956363754</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03404308272633286</v>
+        <v>0.03404308272633289</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03616283324705473</v>
+        <v>0.03616283324705474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03833200506303908</v>
+        <v>0.03833200506303909</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04055297566791084</v>
+        <v>0.04055297566791085</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04282453089447184</v>
+        <v>0.04282453089447185</v>
       </c>
       <c r="I3" t="n">
         <v>0.04513524993509224</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0474819177650213</v>
+        <v>0.04748191776502132</v>
       </c>
       <c r="K3" t="n">
         <v>0.0498578505879556</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05226364671068105</v>
+        <v>0.05226364671068106</v>
       </c>
       <c r="M3" t="n">
         <v>0.05469464899730075</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05714443687775764</v>
+        <v>0.05714443687775765</v>
       </c>
       <c r="O3" t="n">
         <v>0.05960564460671779</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06208049674290251</v>
+        <v>0.06208049674290252</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06456593750202085</v>
+        <v>0.06456593750202086</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06705956259986533</v>
+        <v>0.06705956259986534</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06956116087753587</v>
+        <v>0.06956116087753589</v>
       </c>
       <c r="T3" t="n">
         <v>0.07206904838801927</v>
@@ -6353,7 +6353,7 @@
         <v>0.07458367710163447</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0771052668697027</v>
+        <v>0.07710526686970273</v>
       </c>
     </row>
     <row r="4">
@@ -6442,7 +6442,7 @@
         <v>0.03526398926131837</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03701971820809607</v>
+        <v>0.03701971820809606</v>
       </c>
       <c r="F5" t="n">
         <v>0.03881350056936719</v>
@@ -6454,7 +6454,7 @@
         <v>0.04251190655103253</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04441622155731782</v>
+        <v>0.04441622155731781</v>
       </c>
       <c r="J5" t="n">
         <v>0.04635179406263609</v>
@@ -6469,7 +6469,7 @@
         <v>0.05233833904841858</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05438615904355783</v>
+        <v>0.05438615904355782</v>
       </c>
       <c r="O5" t="n">
         <v>0.05645912481027467</v>
@@ -6478,7 +6478,7 @@
         <v>0.05855582440857609</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06067446115572308</v>
+        <v>0.06067446115572307</v>
       </c>
       <c r="R5" t="n">
         <v>0.06281390240087278</v>
@@ -6487,7 +6487,7 @@
         <v>0.06497469851025459</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06715675924131961</v>
+        <v>0.0671567592413196</v>
       </c>
       <c r="U5" t="n">
         <v>0.06935788387085888</v>
@@ -6573,28 +6573,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006654706584728631</v>
+        <v>0.006654706584728634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007065489081073327</v>
+        <v>0.007065489081073331</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007482105832539274</v>
+        <v>0.007482105832539276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007904816987692496</v>
+        <v>0.007904816987692499</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008333274632724633</v>
+        <v>0.008333274632724636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008765551107844466</v>
+        <v>0.008765551107844468</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009201976206477993</v>
+        <v>0.009201976206477998</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009641699832131064</v>
+        <v>0.009641699832131067</v>
       </c>
       <c r="J7" t="n">
         <v>0.01008376576232517</v>
@@ -6612,19 +6612,19 @@
         <v>0.01186738901779709</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01231474631980081</v>
+        <v>0.01231474631980082</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01276248459555635</v>
+        <v>0.01276248459555636</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01321064410297377</v>
+        <v>0.01321064410297378</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01365892344115697</v>
+        <v>0.01365892344115698</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01410746392746721</v>
+        <v>0.01410746392746722</v>
       </c>
       <c r="T7" t="n">
         <v>0.01455603592164878</v>
@@ -6633,7 +6633,7 @@
         <v>0.01500461102479314</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01545318896615941</v>
+        <v>0.01545318896615942</v>
       </c>
     </row>
     <row r="8">
@@ -7063,67 +7063,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05406045184215324</v>
+        <v>0.05406045184215329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0569276086261461</v>
+        <v>0.05692760862614615</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05982914642807664</v>
+        <v>0.05982914642807667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06275717565117042</v>
+        <v>0.06275717565117046</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06570915594759845</v>
+        <v>0.06570915594759849</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06868932198517042</v>
+        <v>0.06868932198517047</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07169639719523087</v>
+        <v>0.07169639719523091</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07473022605136198</v>
+        <v>0.07473022605136202</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07777874957244252</v>
+        <v>0.07777874957244257</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08084450265614052</v>
+        <v>0.08084450265614056</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08392900173781478</v>
+        <v>0.08392900173781484</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08703300540076442</v>
+        <v>0.0870330054007645</v>
       </c>
       <c r="N14" t="n">
-        <v>0.09015233965466704</v>
+        <v>0.09015233965466712</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09327789024203054</v>
+        <v>0.09327789024203059</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09641268516281562</v>
+        <v>0.09641268516281569</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09955425501711229</v>
+        <v>0.09955425501711235</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1027030068327565</v>
+        <v>0.1027030068327566</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1058581679411492</v>
+        <v>0.1058581679411493</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1090166376577829</v>
+        <v>0.109016637657783</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1121777466638019</v>
+        <v>0.112177746663802</v>
       </c>
       <c r="V14" t="n">
-        <v>0.115341501606055</v>
+        <v>0.1153415016060551</v>
       </c>
     </row>
     <row r="15">
@@ -7906,19 +7906,19 @@
         <v>0.005495171381926271</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005879623804163149</v>
+        <v>0.005879623804163148</v>
       </c>
       <c r="D26" t="n">
         <v>0.006275657686279966</v>
       </c>
       <c r="E26" t="n">
-        <v>0.006681498310569407</v>
+        <v>0.006681498310569406</v>
       </c>
       <c r="F26" t="n">
         <v>0.00709557695310243</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00751873851094955</v>
+        <v>0.007518738510949547</v>
       </c>
       <c r="H26" t="n">
         <v>0.007950584152211098</v>
@@ -7927,16 +7927,16 @@
         <v>0.008391694413910706</v>
       </c>
       <c r="J26" t="n">
-        <v>0.008841265698365382</v>
+        <v>0.00884126569836538</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009299074432910824</v>
+        <v>0.009299074432910823</v>
       </c>
       <c r="L26" t="n">
         <v>0.009764991123240656</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01023767222194693</v>
+        <v>0.01023767222194692</v>
       </c>
       <c r="N26" t="n">
         <v>0.01071585105764699</v>
@@ -8200,64 +8200,64 @@
         <v>0.03166786133271794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03382867062566039</v>
+        <v>0.0338286706256604</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03602840990542457</v>
+        <v>0.03602840990542459</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03826584085089888</v>
+        <v>0.03826584085089889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04053628768147139</v>
+        <v>0.0405362876814714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04283302014506742</v>
+        <v>0.04283302014506743</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04516084081857622</v>
+        <v>0.04516084081857624</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04752132912732265</v>
+        <v>0.04752132912732267</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04990988386296865</v>
+        <v>0.04990988386296866</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05232403684232174</v>
+        <v>0.05232403684232175</v>
       </c>
       <c r="L3" t="n">
         <v>0.05475941045206729</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05720725509715683</v>
+        <v>0.05720725509715684</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05966700755025647</v>
+        <v>0.05966700755025649</v>
       </c>
       <c r="O3" t="n">
-        <v>0.062139924289035</v>
+        <v>0.06213992428903501</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06462479060619992</v>
+        <v>0.06462479060619994</v>
       </c>
       <c r="Q3" t="n">
         <v>0.06711992996629926</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06962377591860182</v>
+        <v>0.06962377591860183</v>
       </c>
       <c r="S3" t="n">
         <v>0.0721359014061919</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07465231425022917</v>
+        <v>0.07465231425022918</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07717545759440916</v>
+        <v>0.07717545759440918</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07970213591481663</v>
+        <v>0.07970213591481666</v>
       </c>
     </row>
     <row r="4">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0339558396652347</v>
+        <v>0.03395583966523469</v>
       </c>
       <c r="C5" t="n">
         <v>0.03568949394025377</v>
@@ -8358,28 +8358,28 @@
         <v>0.04510006978276457</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04711077920710083</v>
+        <v>0.04711077920710082</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04915771148358086</v>
+        <v>0.04915771148358085</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05123512253998486</v>
+        <v>0.05123512253998485</v>
       </c>
       <c r="L5" t="n">
         <v>0.05334348219856288</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05547556707678293</v>
+        <v>0.05547556707678292</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05762887003660816</v>
+        <v>0.05762887003660815</v>
       </c>
       <c r="O5" t="n">
         <v>0.05980649128455805</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06200587964868189</v>
+        <v>0.06200587964868187</v>
       </c>
       <c r="Q5" t="n">
         <v>0.06422444514512946</v>
@@ -8388,7 +8388,7 @@
         <v>0.0664604349921744</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06871061478656308</v>
+        <v>0.06871061478656307</v>
       </c>
       <c r="T5" t="n">
         <v>0.07097042961318839</v>
@@ -8397,7 +8397,7 @@
         <v>0.07323635431519297</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0755078966114036</v>
+        <v>0.07550789661140359</v>
       </c>
     </row>
     <row r="6">
@@ -8477,25 +8477,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007350031738819773</v>
+        <v>0.007350031738819776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007764055304744405</v>
+        <v>0.007764055304744407</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008184273385073547</v>
+        <v>0.008184273385073552</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008609350725883258</v>
+        <v>0.008609350725883263</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009039642637882674</v>
+        <v>0.009039642637882678</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009474100976518882</v>
+        <v>0.009474100976518889</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009912396141783521</v>
+        <v>0.009912396141783526</v>
       </c>
       <c r="I7" t="n">
         <v>0.01035473768580819</v>
@@ -8510,16 +8510,16 @@
         <v>0.01169347151776958</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01214130258205871</v>
+        <v>0.01214130258205872</v>
       </c>
       <c r="N7" t="n">
         <v>0.01258981082235246</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01303836976626095</v>
+        <v>0.01303836976626096</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01348693303706761</v>
+        <v>0.01348693303706762</v>
       </c>
       <c r="Q7" t="n">
         <v>0.01393550021694295</v>
@@ -8528,13 +8528,13 @@
         <v>0.01438407094017412</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01483264488528527</v>
+        <v>0.01483264488528528</v>
       </c>
       <c r="T7" t="n">
         <v>0.01528122176854555</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01572980133858767</v>
+        <v>0.01572980133858768</v>
       </c>
       <c r="V7" t="n">
         <v>0.01617838337192169</v>
@@ -8967,64 +8967,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05847529457452686</v>
+        <v>0.05847529457452691</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06119327862237259</v>
+        <v>0.06119327862237264</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06396187048246643</v>
+        <v>0.06396187048246647</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06677754630619384</v>
+        <v>0.06677754630619388</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06963259550462966</v>
+        <v>0.06963259550462972</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07252408964417402</v>
+        <v>0.07252408964417408</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07544455639253544</v>
+        <v>0.07544455639253549</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07839200913351843</v>
+        <v>0.07839200913351849</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08137025248647761</v>
+        <v>0.08137025248647767</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08437100168878181</v>
+        <v>0.08437100168878189</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08738868157718044</v>
+        <v>0.08738868157718048</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09042498769468485</v>
+        <v>0.09042498769468492</v>
       </c>
       <c r="N14" t="n">
-        <v>0.09348078764073788</v>
+        <v>0.09348078764073794</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09655692523913705</v>
+        <v>0.09655692523913711</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0996496452791767</v>
+        <v>0.09964964527917677</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.10275682609488</v>
+        <v>0.1027568260948801</v>
       </c>
       <c r="R14" t="n">
-        <v>0.105884250481434</v>
+        <v>0.1058842504814341</v>
       </c>
       <c r="S14" t="n">
         <v>0.1090234478239558</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1121722489658398</v>
+        <v>0.1121722489658399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1153317918372749</v>
+        <v>0.115331791837275</v>
       </c>
       <c r="V14" t="n">
         <v>0.1184970077521792</v>
@@ -9807,22 +9807,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005842885349030956</v>
+        <v>0.005842885349030955</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00624085042650423</v>
+        <v>0.006240850426504229</v>
       </c>
       <c r="D26" t="n">
         <v>0.006650874033567401</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00707328231176848</v>
+        <v>0.007073282311768479</v>
       </c>
       <c r="F26" t="n">
         <v>0.007507082923236432</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007951197599023258</v>
+        <v>0.007951197599023256</v>
       </c>
       <c r="H26" t="n">
         <v>0.008404599324344016</v>
@@ -9831,13 +9831,13 @@
         <v>0.008866763941508145</v>
       </c>
       <c r="J26" t="n">
-        <v>0.009337179395596622</v>
+        <v>0.009337179395596621</v>
       </c>
       <c r="K26" t="n">
         <v>0.009814319637417577</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0102978679136256</v>
+        <v>0.01029786791362559</v>
       </c>
       <c r="M26" t="n">
         <v>0.01078908185604004</v>
@@ -10107,58 +10107,58 @@
         <v>0.03028404917244831</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03238772745881686</v>
+        <v>0.03238772745881687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03454264197385014</v>
+        <v>0.03454264197385015</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03674354137484926</v>
+        <v>0.03674354137484927</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03898852633820185</v>
+        <v>0.03898852633820186</v>
       </c>
       <c r="H3" t="n">
         <v>0.04127952560022231</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04360948337288697</v>
+        <v>0.04360948337288698</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0459696028977994</v>
+        <v>0.04596960289779941</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04836080148796724</v>
+        <v>0.04836080148796725</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05077615943250682</v>
+        <v>0.05077615943250683</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0532117385223612</v>
+        <v>0.05321173852236121</v>
       </c>
       <c r="N3" t="n">
-        <v>0.055663824858285</v>
+        <v>0.05566382485828501</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05813474258079457</v>
+        <v>0.05813474258079458</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06062236449830965</v>
+        <v>0.06062236449830966</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06311839560177565</v>
+        <v>0.06311839560177566</v>
       </c>
       <c r="R3" t="n">
         <v>0.06562074426666195</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06813182236907012</v>
+        <v>0.06813182236907013</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07065182893412175</v>
+        <v>0.07065182893412177</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07317771335946333</v>
+        <v>0.07317771335946335</v>
       </c>
       <c r="V3" t="n">
         <v>0.07570673358173662</v>
@@ -10241,7 +10241,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0339558396652347</v>
+        <v>0.03395583966523469</v>
       </c>
       <c r="C5" t="n">
         <v>0.03568949394025377</v>
@@ -10262,28 +10262,28 @@
         <v>0.04510006978276457</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04711077920710083</v>
+        <v>0.04711077920710082</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04915771148358086</v>
+        <v>0.04915771148358085</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05123512253998486</v>
+        <v>0.05123512253998485</v>
       </c>
       <c r="L5" t="n">
         <v>0.05334348219856288</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05547556707678293</v>
+        <v>0.05547556707678292</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05762887003660816</v>
+        <v>0.05762887003660815</v>
       </c>
       <c r="O5" t="n">
         <v>0.05980649128455805</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06200587964868189</v>
+        <v>0.06200587964868187</v>
       </c>
       <c r="Q5" t="n">
         <v>0.06422444514512946</v>
@@ -10292,7 +10292,7 @@
         <v>0.0664604349921744</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06871061478656308</v>
+        <v>0.06871061478656307</v>
       </c>
       <c r="T5" t="n">
         <v>0.07097042961318839</v>
@@ -10301,7 +10301,7 @@
         <v>0.07323635431519297</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0755078966114036</v>
+        <v>0.07550789661140359</v>
       </c>
     </row>
     <row r="6">
@@ -10381,28 +10381,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006654706584728631</v>
+        <v>0.006654706584728634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007065489081073327</v>
+        <v>0.007065489081073331</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007482105832539274</v>
+        <v>0.007482105832539276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007904816987692496</v>
+        <v>0.007904816987692499</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008333274632724633</v>
+        <v>0.008333274632724636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008765551107844466</v>
+        <v>0.008765551107844468</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009201976206477993</v>
+        <v>0.009201976206477998</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009641699832131064</v>
+        <v>0.009641699832131067</v>
       </c>
       <c r="J7" t="n">
         <v>0.01008376576232517</v>
@@ -10420,19 +10420,19 @@
         <v>0.01186738901779709</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01231474631980081</v>
+        <v>0.01231474631980082</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01276248459555635</v>
+        <v>0.01276248459555636</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01321064410297377</v>
+        <v>0.01321064410297378</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01365892344115697</v>
+        <v>0.01365892344115698</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01410746392746721</v>
+        <v>0.01410746392746722</v>
       </c>
       <c r="T7" t="n">
         <v>0.01455603592164878</v>
@@ -10441,7 +10441,7 @@
         <v>0.01500461102479314</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01545318896615941</v>
+        <v>0.01545318896615942</v>
       </c>
     </row>
     <row r="8">
@@ -10871,64 +10871,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05847529457452686</v>
+        <v>0.05847529457452691</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06119327862237259</v>
+        <v>0.06119327862237264</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06396187048246643</v>
+        <v>0.06396187048246647</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06677754630619384</v>
+        <v>0.06677754630619388</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06963259550462966</v>
+        <v>0.06963259550462972</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07252408964417402</v>
+        <v>0.07252408964417408</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07544455639253544</v>
+        <v>0.07544455639253549</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07839200913351843</v>
+        <v>0.07839200913351849</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08137025248647761</v>
+        <v>0.08137025248647767</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08437100168878181</v>
+        <v>0.08437100168878189</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08738868157718044</v>
+        <v>0.08738868157718048</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09042498769468485</v>
+        <v>0.09042498769468492</v>
       </c>
       <c r="N14" t="n">
-        <v>0.09348078764073788</v>
+        <v>0.09348078764073794</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09655692523913705</v>
+        <v>0.09655692523913711</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0996496452791767</v>
+        <v>0.09964964527917677</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.10275682609488</v>
+        <v>0.1027568260948801</v>
       </c>
       <c r="R14" t="n">
-        <v>0.105884250481434</v>
+        <v>0.1058842504814341</v>
       </c>
       <c r="S14" t="n">
         <v>0.1090234478239558</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1121722489658398</v>
+        <v>0.1121722489658399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1153317918372749</v>
+        <v>0.115331791837275</v>
       </c>
       <c r="V14" t="n">
         <v>0.1184970077521792</v>
@@ -11717,16 +11717,16 @@
         <v>0.006436048827330982</v>
       </c>
       <c r="D26" t="n">
-        <v>0.006825710463529496</v>
+        <v>0.006825710463529495</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007225406090862013</v>
+        <v>0.007225406090862012</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007634235995118066</v>
+        <v>0.007634235995118064</v>
       </c>
       <c r="G26" t="n">
-        <v>0.008052125104793497</v>
+        <v>0.008052125104793495</v>
       </c>
       <c r="H26" t="n">
         <v>0.008479458667728207</v>
@@ -11738,7 +11738,7 @@
         <v>0.009361605655802416</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009814880073959028</v>
+        <v>0.009814880073959026</v>
       </c>
       <c r="L26" t="n">
         <v>0.0102751353921412</v>
@@ -12014,43 +12014,43 @@
         <v>0.02514555781315041</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02731901079825101</v>
+        <v>0.02731901079825102</v>
       </c>
       <c r="F3" t="n">
         <v>0.02954773985648652</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03182035814988169</v>
+        <v>0.0318203581498817</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03413317568708516</v>
+        <v>0.03413317568708517</v>
       </c>
       <c r="I3" t="n">
         <v>0.03648558676428715</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03887009018247533</v>
+        <v>0.03887009018247534</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04128120598323029</v>
+        <v>0.04128120598323031</v>
       </c>
       <c r="L3" t="n">
         <v>0.04371780141271384</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04617712543725952</v>
+        <v>0.04617712543725953</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0486503447140156</v>
+        <v>0.04865034471401561</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05113585830048109</v>
+        <v>0.0511358583004811</v>
       </c>
       <c r="P3" t="n">
         <v>0.05363531390782483</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05614772854348451</v>
+        <v>0.05614772854348453</v>
       </c>
       <c r="R3" t="n">
         <v>0.05867058070679036</v>
@@ -12059,13 +12059,13 @@
         <v>0.06120245117328322</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06374031790492041</v>
+        <v>0.06374031790492042</v>
       </c>
       <c r="U3" t="n">
         <v>0.0662810356155844</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06882529645447309</v>
+        <v>0.06882529645447311</v>
       </c>
     </row>
     <row r="4">
@@ -12154,7 +12154,7 @@
         <v>0.03017871443678496</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03183188863625386</v>
+        <v>0.03183188863625385</v>
       </c>
       <c r="F5" t="n">
         <v>0.03352895826432366</v>
@@ -12178,10 +12178,10 @@
         <v>0.04455374860421146</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04651828431757329</v>
+        <v>0.04651828431757327</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04851500136695289</v>
+        <v>0.04851500136695288</v>
       </c>
       <c r="O5" t="n">
         <v>0.05053982021084437</v>
@@ -12190,13 +12190,13 @@
         <v>0.05259088955975238</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05466662779649503</v>
+        <v>0.05466662779649502</v>
       </c>
       <c r="R5" t="n">
         <v>0.05676856670644785</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05889737803620673</v>
+        <v>0.05889737803620671</v>
       </c>
       <c r="T5" t="n">
         <v>0.06105241436696652</v>
@@ -12285,46 +12285,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005336020146471114</v>
+        <v>0.005336020146471116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005751799125851432</v>
+        <v>0.005751799125851434</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006173925271527117</v>
+        <v>0.00617392527152712</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006601996649675669</v>
+        <v>0.006601996649675671</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007034933025232222</v>
+        <v>0.007034933025232225</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007472801862385057</v>
+        <v>0.007472801862385059</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007914543022134081</v>
+        <v>0.007914543022134084</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008359162849017611</v>
+        <v>0.008359162849017615</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008805444277273148</v>
+        <v>0.008805444277273151</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009252757855343033</v>
+        <v>0.009252757855343038</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009700982556781597</v>
+        <v>0.009700982556781604</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01015041337096954</v>
+        <v>0.01015041337096955</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01060076996099384</v>
+        <v>0.01060076996099385</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01105141853022151</v>
+        <v>0.01105141853022152</v>
       </c>
       <c r="P7" t="n">
         <v>0.0115020742755471</v>
@@ -12336,16 +12336,16 @@
         <v>0.01240340416571012</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01285407702037097</v>
+        <v>0.01285407702037098</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0133047544336289</v>
+        <v>0.01330475443362891</v>
       </c>
       <c r="U7" t="n">
         <v>0.01375543595741596</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01420612120051919</v>
+        <v>0.0142061212005192</v>
       </c>
     </row>
     <row r="8">
@@ -12775,67 +12775,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04611613600308652</v>
+        <v>0.04611613600308655</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04867041899708249</v>
+        <v>0.04867041899708253</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05128338088532245</v>
+        <v>0.05128338088532249</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05394624866580358</v>
+        <v>0.05394624866580361</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05665401987729419</v>
+        <v>0.05665401987729423</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05940666797409752</v>
+        <v>0.05940666797409757</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06219662011714658</v>
+        <v>0.06219662011714663</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06502786579172901</v>
+        <v>0.06502786579172905</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06789274610795921</v>
+        <v>0.06789274610795926</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07078793068296139</v>
+        <v>0.07078793068296145</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07371682924506393</v>
+        <v>0.07371682924506397</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07667380043392086</v>
+        <v>0.0766738004339209</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07965897526843393</v>
+        <v>0.07965897526843399</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08266322764052633</v>
+        <v>0.08266322764052639</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08568629225879765</v>
+        <v>0.08568629225879769</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08872672265260108</v>
+        <v>0.08872672265260112</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09178265653941838</v>
+        <v>0.09178265653941843</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09485997025359735</v>
+        <v>0.09485997025359741</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09795430119523076</v>
+        <v>0.09795430119523083</v>
       </c>
       <c r="U14" t="n">
         <v>0.1010619387398329</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1041786861349077</v>
+        <v>0.1041786861349078</v>
       </c>
     </row>
     <row r="15">
@@ -13615,13 +13615,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004356524222482581</v>
+        <v>0.004356524222482578</v>
       </c>
       <c r="C26" t="n">
         <v>0.004727490642689024</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005110813646886199</v>
+        <v>0.005110813646886198</v>
       </c>
       <c r="E26" t="n">
         <v>0.005505713192508317</v>
@@ -13636,7 +13636,7 @@
         <v>0.006750683761037406</v>
       </c>
       <c r="I26" t="n">
-        <v>0.007185855983247261</v>
+        <v>0.00718585598324726</v>
       </c>
       <c r="J26" t="n">
         <v>0.007630158811431271</v>
@@ -13651,10 +13651,10 @@
         <v>0.009009851321519343</v>
       </c>
       <c r="N26" t="n">
-        <v>0.009483254830743826</v>
+        <v>0.009483254830743824</v>
       </c>
       <c r="O26" t="n">
-        <v>0.009962345929850252</v>
+        <v>0.00996234592985025</v>
       </c>
       <c r="P26" t="n">
         <v>0.01044706820064187</v>
@@ -13666,7 +13666,7 @@
         <v>0.01143039445802187</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01192790059498806</v>
+        <v>0.01192790059498805</v>
       </c>
       <c r="T26" t="n">
         <v>0.01242890509658942</v>
@@ -13675,7 +13675,7 @@
         <v>0.01293323115760922</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01344047951469593</v>
+        <v>0.01344047951469592</v>
       </c>
     </row>
     <row r="27">
